--- a/ScientificResearch/wwwroot/upload/成果/论文/导入论文成果模板.xlsx
+++ b/ScientificResearch/wwwroot/upload/成果/论文/导入论文成果模板.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>论文标题(必填)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>论文标题类型</t>
-  </si>
-  <si>
     <t>论文Online日期</t>
   </si>
   <si>
@@ -106,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +146,17 @@
   </si>
   <si>
     <t>东南学术</t>
+  </si>
+  <si>
+    <t>通讯作者</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文献类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -558,26 +562,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.375" customWidth="1"/>
-    <col min="19" max="19" width="48" customWidth="1"/>
-    <col min="23" max="23" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.375" customWidth="1"/>
+    <col min="21" max="21" width="48" customWidth="1"/>
+    <col min="25" max="25" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,138 +594,144 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:26" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
+      <c r="B2" s="4">
+        <v>43252</v>
       </c>
       <c r="C2" s="4">
         <v>43252</v>
       </c>
-      <c r="D2" s="4">
-        <v>43252</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
         <v>100</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>2018</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>43252</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>43385</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3">
-        <v>1</v>
-      </c>
-      <c r="W2" s="6">
-        <v>43385</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
